--- a/106-2教科書/02.採購/招標議價_底價單.xlsx
+++ b/106-2教科書/02.採購/招標議價_底價單.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\106設備組\03教科書\106-2教科書\02.採購\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7160"/>
   </bookViews>
   <sheets>
     <sheet name="書單(總)" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'書單(總)'!$A$3:$A$73</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -474,10 +469,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="[DBNum2][$-404]General&quot;元&quot;"/>
-    <numFmt numFmtId="179" formatCode="[DBNum2]&quot;總計金額：新台幣  &quot;[$-404]General&quot;  元整&quot;"/>
+    <numFmt numFmtId="176" formatCode="[DBNum2][$-404]General&quot;元&quot;"/>
+    <numFmt numFmtId="177" formatCode="[DBNum2]&quot;總計金額：新台幣  &quot;[$-404]General&quot;  元整&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -657,14 +652,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -672,15 +667,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -693,49 +679,22 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1"/>
     <cellStyle name="一般 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -785,8 +744,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -843,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -878,7 +837,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1087,32 +1046,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表3"/>
+  <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.2109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.35546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="7.109375" style="1"/>
+    <col min="9" max="9" width="8.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="7.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21">
+    <row r="1" spans="1:11" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A1" s="10"/>
       <c r="B1" s="9" t="s">
         <v>131</v>
@@ -1125,40 +1084,40 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="3.4" customHeight="1"/>
-    <row r="3" spans="1:11" ht="42.75">
-      <c r="A3" s="21" t="s">
+    <row r="2" spans="1:11" ht="3.4" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="20" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1185,14 +1144,14 @@
         <v>213</v>
       </c>
       <c r="I4" s="6">
-        <f>E4*H4</f>
+        <f t="shared" ref="I4:I35" si="0">E4*H4</f>
         <v>13206</v>
       </c>
       <c r="J4" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1212,21 +1171,21 @@
         <v>232</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G68" si="0">ROUND(F5*0.975,0)</f>
+        <f t="shared" ref="G5:G68" si="1">ROUND(F5*0.975,0)</f>
         <v>226</v>
       </c>
       <c r="H5" s="11">
         <v>226</v>
       </c>
       <c r="I5" s="6">
-        <f>E5*H5</f>
+        <f t="shared" si="0"/>
         <v>52432</v>
       </c>
       <c r="J5" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1246,21 +1205,21 @@
         <v>248</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>242</v>
       </c>
       <c r="H6" s="11">
         <v>242</v>
       </c>
       <c r="I6" s="6">
-        <f>E6*H6</f>
+        <f t="shared" si="0"/>
         <v>59532</v>
       </c>
       <c r="J6" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1280,21 +1239,21 @@
         <v>228</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
       <c r="H7" s="11">
         <v>222</v>
       </c>
       <c r="I7" s="6">
-        <f>E7*H7</f>
+        <f t="shared" si="0"/>
         <v>34188</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1314,21 +1273,21 @@
         <v>220</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>215</v>
       </c>
       <c r="H8" s="11">
         <v>215</v>
       </c>
       <c r="I8" s="6">
-        <f>E8*H8</f>
+        <f t="shared" si="0"/>
         <v>35260</v>
       </c>
       <c r="J8" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1348,21 +1307,21 @@
         <v>168</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="H9" s="11">
         <v>164</v>
       </c>
       <c r="I9" s="6">
-        <f>E9*H9</f>
+        <f t="shared" si="0"/>
         <v>10168</v>
       </c>
       <c r="J9" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1382,21 +1341,21 @@
         <v>198</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>193</v>
       </c>
       <c r="H10" s="11">
         <v>193</v>
       </c>
       <c r="I10" s="6">
-        <f>E10*H10</f>
+        <f t="shared" si="0"/>
         <v>15247</v>
       </c>
       <c r="J10" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1416,21 +1375,21 @@
         <v>210</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>205</v>
       </c>
       <c r="H11" s="11">
         <v>205</v>
       </c>
       <c r="I11" s="6">
-        <f>E11*H11</f>
+        <f t="shared" si="0"/>
         <v>12710</v>
       </c>
       <c r="J11" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1450,14 +1409,14 @@
         <v>331</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>323</v>
       </c>
       <c r="H12" s="11">
         <v>323</v>
       </c>
       <c r="I12" s="6">
-        <f>E12*H12</f>
+        <f t="shared" si="0"/>
         <v>24871</v>
       </c>
       <c r="J12" s="1">
@@ -1467,7 +1426,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1487,14 +1446,14 @@
         <v>200</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="H13" s="11">
         <v>195</v>
       </c>
       <c r="I13" s="6">
-        <f>E13*H13</f>
+        <f t="shared" si="0"/>
         <v>31005</v>
       </c>
       <c r="J13" s="1">
@@ -1504,7 +1463,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1524,21 +1483,21 @@
         <v>150</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>146</v>
       </c>
       <c r="H14" s="11">
         <v>146</v>
       </c>
       <c r="I14" s="6">
-        <f>E14*H14</f>
+        <f t="shared" si="0"/>
         <v>14016</v>
       </c>
       <c r="J14" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1558,21 +1517,21 @@
         <v>160</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="H15" s="11">
         <v>156</v>
       </c>
       <c r="I15" s="6">
-        <f>E15*H15</f>
+        <f t="shared" si="0"/>
         <v>12168</v>
       </c>
       <c r="J15" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -1592,21 +1551,21 @@
         <v>160</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="H16" s="11">
         <v>156</v>
       </c>
       <c r="I16" s="6">
-        <f>E16*H16</f>
+        <f t="shared" si="0"/>
         <v>85488</v>
       </c>
       <c r="J16" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -1626,21 +1585,21 @@
         <v>160</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="H17" s="11">
         <v>156</v>
       </c>
       <c r="I17" s="6">
-        <f>E17*H17</f>
+        <f t="shared" si="0"/>
         <v>14976</v>
       </c>
       <c r="J17" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1660,14 +1619,14 @@
         <v>262</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="H18" s="11">
         <v>255</v>
       </c>
       <c r="I18" s="6">
-        <f>E18*H18</f>
+        <f t="shared" si="0"/>
         <v>39270</v>
       </c>
       <c r="J18" s="1">
@@ -1677,7 +1636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -1697,21 +1656,21 @@
         <v>155</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>151</v>
       </c>
       <c r="H19" s="11">
         <v>151</v>
       </c>
       <c r="I19" s="6">
-        <f>E19*H19</f>
+        <f t="shared" si="0"/>
         <v>105549</v>
       </c>
       <c r="J19" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -1731,21 +1690,21 @@
         <v>155</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>151</v>
       </c>
       <c r="H20" s="11">
         <v>151</v>
       </c>
       <c r="I20" s="6">
-        <f>E20*H20</f>
+        <f t="shared" si="0"/>
         <v>11778</v>
       </c>
       <c r="J20" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -1765,21 +1724,21 @@
         <v>168</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="H21" s="11">
         <v>164</v>
       </c>
       <c r="I21" s="6">
-        <f>E21*H21</f>
+        <f t="shared" si="0"/>
         <v>114636</v>
       </c>
       <c r="J21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -1799,21 +1758,21 @@
         <v>125</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="H22" s="11">
         <v>122</v>
       </c>
       <c r="I22" s="6">
-        <f>E22*H22</f>
+        <f t="shared" si="0"/>
         <v>78080</v>
       </c>
       <c r="J22" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
@@ -1833,21 +1792,21 @@
         <v>160</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="H23" s="11">
         <v>156</v>
       </c>
       <c r="I23" s="6">
-        <f>E23*H23</f>
+        <f t="shared" si="0"/>
         <v>12168</v>
       </c>
       <c r="J23" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -1867,21 +1826,21 @@
         <v>210</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>205</v>
       </c>
       <c r="H24" s="11">
         <v>205</v>
       </c>
       <c r="I24" s="6">
-        <f>E24*H24</f>
+        <f t="shared" si="0"/>
         <v>95735</v>
       </c>
       <c r="J24" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
@@ -1901,21 +1860,21 @@
         <v>240</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>234</v>
       </c>
       <c r="H25" s="11">
         <v>234</v>
       </c>
       <c r="I25" s="6">
-        <f>E25*H25</f>
+        <f t="shared" si="0"/>
         <v>98982</v>
       </c>
       <c r="J25" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
@@ -1935,21 +1894,21 @@
         <v>230</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="H26" s="11">
         <v>224</v>
       </c>
       <c r="I26" s="6">
-        <f>E26*H26</f>
+        <f t="shared" si="0"/>
         <v>104384</v>
       </c>
       <c r="J26" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -1969,21 +1928,21 @@
         <v>240</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>234</v>
       </c>
       <c r="H27" s="11">
         <v>234</v>
       </c>
       <c r="I27" s="6">
-        <f>E27*H27</f>
+        <f t="shared" si="0"/>
         <v>127530</v>
       </c>
       <c r="J27" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>42</v>
       </c>
@@ -2003,21 +1962,21 @@
         <v>240</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>234</v>
       </c>
       <c r="H28" s="11">
         <v>234</v>
       </c>
       <c r="I28" s="6">
-        <f>E28*H28</f>
+        <f t="shared" si="0"/>
         <v>18252</v>
       </c>
       <c r="J28" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
@@ -2037,21 +1996,21 @@
         <v>210</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>205</v>
       </c>
       <c r="H29" s="11">
         <v>205</v>
       </c>
       <c r="I29" s="6">
-        <f>E29*H29</f>
+        <f t="shared" si="0"/>
         <v>20090</v>
       </c>
       <c r="J29" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>52</v>
       </c>
@@ -2071,21 +2030,21 @@
         <v>200</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="H30" s="11">
         <v>195</v>
       </c>
       <c r="I30" s="6">
-        <f>E30*H30</f>
+        <f t="shared" si="0"/>
         <v>91260</v>
       </c>
       <c r="J30" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>52</v>
       </c>
@@ -2105,21 +2064,21 @@
         <v>200</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="H31" s="11">
         <v>195</v>
       </c>
       <c r="I31" s="6">
-        <f>E31*H31</f>
+        <f t="shared" si="0"/>
         <v>15210</v>
       </c>
       <c r="J31" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>52</v>
       </c>
@@ -2139,21 +2098,21 @@
         <v>200</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="H32" s="11">
         <v>195</v>
       </c>
       <c r="I32" s="6">
-        <f>E32*H32</f>
+        <f t="shared" si="0"/>
         <v>76050</v>
       </c>
       <c r="J32" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>52</v>
       </c>
@@ -2173,21 +2132,21 @@
         <v>250</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>244</v>
       </c>
       <c r="H33" s="11">
         <v>244</v>
       </c>
       <c r="I33" s="6">
-        <f>E33*H33</f>
+        <f t="shared" si="0"/>
         <v>94672</v>
       </c>
       <c r="J33" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>52</v>
       </c>
@@ -2207,21 +2166,21 @@
         <v>185</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="H34" s="11">
         <v>180</v>
       </c>
       <c r="I34" s="6">
-        <f>E34*H34</f>
+        <f t="shared" si="0"/>
         <v>98640</v>
       </c>
       <c r="J34" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -2241,14 +2200,14 @@
         <v>185</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="H35" s="11">
         <v>180</v>
       </c>
       <c r="I35" s="6">
-        <f>E35*H35</f>
+        <f t="shared" si="0"/>
         <v>27720</v>
       </c>
       <c r="J35" s="1">
@@ -2258,7 +2217,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>61</v>
       </c>
@@ -2278,14 +2237,14 @@
         <v>231</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
       <c r="H36" s="11">
         <v>225</v>
       </c>
       <c r="I36" s="6">
-        <f>E36*H36</f>
+        <f t="shared" ref="I36:I67" si="2">E36*H36</f>
         <v>36900</v>
       </c>
       <c r="J36" s="1">
@@ -2295,7 +2254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>61</v>
       </c>
@@ -2315,14 +2274,14 @@
         <v>209</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>204</v>
       </c>
       <c r="H37" s="11">
         <v>204</v>
       </c>
       <c r="I37" s="6">
-        <f>E37*H37</f>
+        <f t="shared" si="2"/>
         <v>21216</v>
       </c>
       <c r="J37" s="1">
@@ -2332,7 +2291,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
@@ -2352,21 +2311,21 @@
         <v>125</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="H38" s="11">
         <v>122</v>
       </c>
       <c r="I38" s="6">
-        <f>E38*H38</f>
+        <f t="shared" si="2"/>
         <v>12688</v>
       </c>
       <c r="J38" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>67</v>
       </c>
@@ -2386,21 +2345,21 @@
         <v>125</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="H39" s="11">
         <v>122</v>
       </c>
       <c r="I39" s="6">
-        <f>E39*H39</f>
+        <f t="shared" si="2"/>
         <v>9638</v>
       </c>
       <c r="J39" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>67</v>
       </c>
@@ -2420,21 +2379,21 @@
         <v>140</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>137</v>
       </c>
       <c r="H40" s="11">
         <v>137</v>
       </c>
       <c r="I40" s="6">
-        <f>E40*H40</f>
+        <f t="shared" si="2"/>
         <v>97544</v>
       </c>
       <c r="J40" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>73</v>
       </c>
@@ -2454,21 +2413,21 @@
         <v>230</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="H41" s="11">
         <v>224</v>
       </c>
       <c r="I41" s="6">
-        <f>E41*H41</f>
+        <f t="shared" si="2"/>
         <v>34944</v>
       </c>
       <c r="J41" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>73</v>
       </c>
@@ -2488,21 +2447,21 @@
         <v>230</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="H42" s="11">
         <v>224</v>
       </c>
       <c r="I42" s="6">
-        <f>E42*H42</f>
+        <f t="shared" si="2"/>
         <v>17472</v>
       </c>
       <c r="J42" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>73</v>
       </c>
@@ -2522,21 +2481,21 @@
         <v>230</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="H43" s="11">
         <v>224</v>
       </c>
       <c r="I43" s="6">
-        <f>E43*H43</f>
+        <f t="shared" si="2"/>
         <v>87360</v>
       </c>
       <c r="J43" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>73</v>
       </c>
@@ -2556,21 +2515,21 @@
         <v>230</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="H44" s="11">
         <v>224</v>
       </c>
       <c r="I44" s="6">
-        <f>E44*H44</f>
+        <f t="shared" si="2"/>
         <v>21504</v>
       </c>
       <c r="J44" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>73</v>
       </c>
@@ -2590,21 +2549,21 @@
         <v>335</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>327</v>
       </c>
       <c r="H45" s="11">
         <v>327</v>
       </c>
       <c r="I45" s="6">
-        <f>E45*H45</f>
+        <f t="shared" si="2"/>
         <v>101043</v>
       </c>
       <c r="J45" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
         <v>83</v>
       </c>
@@ -2624,21 +2583,21 @@
         <v>145</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="H46" s="11">
         <v>141</v>
       </c>
       <c r="I46" s="6">
-        <f>E46*H46</f>
+        <f t="shared" si="2"/>
         <v>90240</v>
       </c>
       <c r="J46" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
         <v>83</v>
       </c>
@@ -2658,21 +2617,21 @@
         <v>145</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="H47" s="11">
         <v>141</v>
       </c>
       <c r="I47" s="6">
-        <f>E47*H47</f>
+        <f t="shared" si="2"/>
         <v>15510</v>
       </c>
       <c r="J47" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>86</v>
       </c>
@@ -2692,14 +2651,14 @@
         <v>146</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
       <c r="H48" s="11">
         <v>142</v>
       </c>
       <c r="I48" s="6">
-        <f>E48*H48</f>
+        <f t="shared" si="2"/>
         <v>99258</v>
       </c>
       <c r="J48" s="1">
@@ -2709,7 +2668,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>89</v>
       </c>
@@ -2729,21 +2688,21 @@
         <v>278</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>271</v>
       </c>
       <c r="H49" s="11">
         <v>271</v>
       </c>
       <c r="I49" s="6">
-        <f>E49*H49</f>
+        <f t="shared" si="2"/>
         <v>126828</v>
       </c>
       <c r="J49" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>89</v>
       </c>
@@ -2763,21 +2722,21 @@
         <v>278</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>271</v>
       </c>
       <c r="H50" s="11">
         <v>271</v>
       </c>
       <c r="I50" s="6">
-        <f>E50*H50</f>
+        <f t="shared" si="2"/>
         <v>21138</v>
       </c>
       <c r="J50" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
         <v>89</v>
       </c>
@@ -2797,21 +2756,21 @@
         <v>278</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>271</v>
       </c>
       <c r="H51" s="11">
         <v>271</v>
       </c>
       <c r="I51" s="6">
-        <f>E51*H51</f>
+        <f t="shared" si="2"/>
         <v>127370</v>
       </c>
       <c r="J51" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>89</v>
       </c>
@@ -2831,21 +2790,21 @@
         <v>278</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>271</v>
       </c>
       <c r="H52" s="11">
         <v>271</v>
       </c>
       <c r="I52" s="6">
-        <f>E52*H52</f>
+        <f t="shared" si="2"/>
         <v>26016</v>
       </c>
       <c r="J52" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
         <v>89</v>
       </c>
@@ -2865,21 +2824,21 @@
         <v>280</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>273</v>
       </c>
       <c r="H53" s="11">
         <v>273</v>
       </c>
       <c r="I53" s="6">
-        <f>E53*H53</f>
+        <f t="shared" si="2"/>
         <v>26208</v>
       </c>
       <c r="J53" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>94</v>
       </c>
@@ -2899,21 +2858,21 @@
         <v>206</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>201</v>
       </c>
       <c r="H54" s="11">
         <v>201</v>
       </c>
       <c r="I54" s="6">
-        <f>E54*H54</f>
+        <f t="shared" si="2"/>
         <v>30954</v>
       </c>
       <c r="J54" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>94</v>
       </c>
@@ -2933,21 +2892,21 @@
         <v>215</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="H55" s="11">
         <v>210</v>
       </c>
       <c r="I55" s="6">
-        <f>E55*H55</f>
+        <f t="shared" si="2"/>
         <v>32340</v>
       </c>
       <c r="J55" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>94</v>
       </c>
@@ -2967,21 +2926,21 @@
         <v>195</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="H56" s="11">
         <v>190</v>
       </c>
       <c r="I56" s="6">
-        <f>E56*H56</f>
+        <f t="shared" si="2"/>
         <v>29260</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>94</v>
       </c>
@@ -3001,21 +2960,21 @@
         <v>199</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>194</v>
       </c>
       <c r="H57" s="11">
         <v>194</v>
       </c>
       <c r="I57" s="6">
-        <f>E57*H57</f>
+        <f t="shared" si="2"/>
         <v>106312</v>
       </c>
       <c r="J57" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
         <v>94</v>
       </c>
@@ -3035,21 +2994,21 @@
         <v>218</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>213</v>
       </c>
       <c r="H58" s="11">
         <v>213</v>
       </c>
       <c r="I58" s="6">
-        <f>E58*H58</f>
+        <f t="shared" si="2"/>
         <v>16614</v>
       </c>
       <c r="J58" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>104</v>
       </c>
@@ -3069,21 +3028,21 @@
         <v>228</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
       <c r="H59" s="11">
         <v>222</v>
       </c>
       <c r="I59" s="6">
-        <f>E59*H59</f>
+        <f t="shared" si="2"/>
         <v>36408</v>
       </c>
       <c r="J59" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>104</v>
       </c>
@@ -3103,21 +3062,21 @@
         <v>233</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>227</v>
       </c>
       <c r="H60" s="11">
         <v>227</v>
       </c>
       <c r="I60" s="6">
-        <f>E60*H60</f>
+        <f t="shared" si="2"/>
         <v>24970</v>
       </c>
       <c r="J60" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
         <v>104</v>
       </c>
@@ -3137,21 +3096,21 @@
         <v>249</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>243</v>
       </c>
       <c r="H61" s="11">
         <v>243</v>
       </c>
       <c r="I61" s="6">
-        <f>E61*H61</f>
+        <f t="shared" si="2"/>
         <v>14580</v>
       </c>
       <c r="J61" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
         <v>104</v>
       </c>
@@ -3171,21 +3130,21 @@
         <v>218</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>213</v>
       </c>
       <c r="H62" s="11">
         <v>213</v>
       </c>
       <c r="I62" s="6">
-        <f>E62*H62</f>
+        <f t="shared" si="2"/>
         <v>20448</v>
       </c>
       <c r="J62" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
         <v>104</v>
       </c>
@@ -3205,21 +3164,21 @@
         <v>205</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="H63" s="11">
         <v>200</v>
       </c>
       <c r="I63" s="6">
-        <f>E63*H63</f>
+        <f t="shared" si="2"/>
         <v>22000</v>
       </c>
       <c r="J63" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
         <v>104</v>
       </c>
@@ -3239,21 +3198,21 @@
         <v>205</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="H64" s="11">
         <v>200</v>
       </c>
       <c r="I64" s="6">
-        <f>E64*H64</f>
+        <f t="shared" si="2"/>
         <v>19200</v>
       </c>
       <c r="J64" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
         <v>104</v>
       </c>
@@ -3273,21 +3232,21 @@
         <v>187</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>182</v>
       </c>
       <c r="H65" s="11">
         <v>182</v>
       </c>
       <c r="I65" s="6">
-        <f>E65*H65</f>
+        <f t="shared" si="2"/>
         <v>14196</v>
       </c>
       <c r="J65" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
         <v>104</v>
       </c>
@@ -3307,21 +3266,21 @@
         <v>285</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>278</v>
       </c>
       <c r="H66" s="11">
         <v>278</v>
       </c>
       <c r="I66" s="6">
-        <f>E66*H66</f>
+        <f t="shared" si="2"/>
         <v>3336</v>
       </c>
       <c r="J66" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
         <v>104</v>
       </c>
@@ -3341,21 +3300,21 @@
         <v>265</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>258</v>
       </c>
       <c r="H67" s="11">
         <v>258</v>
       </c>
       <c r="I67" s="6">
-        <f>E67*H67</f>
+        <f t="shared" si="2"/>
         <v>40248</v>
       </c>
       <c r="J67" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
         <v>104</v>
       </c>
@@ -3375,21 +3334,21 @@
         <v>254</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>248</v>
       </c>
       <c r="H68" s="11">
         <v>248</v>
       </c>
       <c r="I68" s="6">
-        <f>E68*H68</f>
+        <f t="shared" ref="I68:I73" si="3">E68*H68</f>
         <v>6200</v>
       </c>
       <c r="J68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
         <v>104</v>
       </c>
@@ -3409,21 +3368,21 @@
         <v>187</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" ref="G69:G73" si="1">ROUND(F69*0.975,0)</f>
+        <f t="shared" ref="G69:G73" si="4">ROUND(F69*0.975,0)</f>
         <v>182</v>
       </c>
       <c r="H69" s="11">
         <v>182</v>
       </c>
       <c r="I69" s="6">
-        <f>E69*H69</f>
+        <f t="shared" si="3"/>
         <v>17472</v>
       </c>
       <c r="J69" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
         <v>104</v>
       </c>
@@ -3443,21 +3402,21 @@
         <v>180</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>176</v>
       </c>
       <c r="H70" s="11">
         <v>176</v>
       </c>
       <c r="I70" s="6">
-        <f>E70*H70</f>
+        <f t="shared" si="3"/>
         <v>95920</v>
       </c>
       <c r="J70" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
         <v>104</v>
       </c>
@@ -3477,21 +3436,21 @@
         <v>253</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>247</v>
       </c>
       <c r="H71" s="11">
         <v>247</v>
       </c>
       <c r="I71" s="6">
-        <f>E71*H71</f>
+        <f t="shared" si="3"/>
         <v>25688</v>
       </c>
       <c r="J71" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
         <v>104</v>
       </c>
@@ -3511,21 +3470,21 @@
         <v>241</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>235</v>
       </c>
       <c r="H72" s="11">
         <v>235</v>
       </c>
       <c r="I72" s="6">
-        <f>E72*H72</f>
+        <f t="shared" si="3"/>
         <v>18565</v>
       </c>
       <c r="J72" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
         <v>104</v>
       </c>
@@ -3545,21 +3504,21 @@
         <v>232</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>226</v>
       </c>
       <c r="H73" s="11">
         <v>226</v>
       </c>
       <c r="I73" s="6">
-        <f>E73*H73</f>
+        <f t="shared" si="3"/>
         <v>14012</v>
       </c>
       <c r="J73" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="7"/>
       <c r="B74" s="5"/>
       <c r="C74" s="7"/>
@@ -3570,7 +3529,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="7"/>
       <c r="B75" s="5"/>
       <c r="C75" s="7"/>
@@ -3583,14 +3542,14 @@
       </c>
       <c r="I75" s="8">
         <f>SUBTOTAL(9,I4:I73)</f>
-        <v>3206873</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="35.25" customHeight="1">
+        <v>105750</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="12"/>
       <c r="B76" s="14">
         <f>I75</f>
-        <v>3206873</v>
+        <v>105750</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="13"/>
@@ -3599,12 +3558,12 @@
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
     </row>
-    <row r="78" spans="1:10" ht="82.5" customHeight="1">
-      <c r="A78" s="18" t="s">
+    <row r="78" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="24"/>
       <c r="D78" s="15" t="s">
         <v>140</v>
       </c>
@@ -3615,7 +3574,13 @@
       <c r="I78" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A73"/>
+  <autoFilter ref="A3:A73">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="翔宇"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A78:C78"/>
   </mergeCells>

--- a/106-2教科書/02.採購/招標議價_底價單.xlsx
+++ b/106-2教科書/02.採購/招標議價_底價單.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19414" windowHeight="7162"/>
   </bookViews>
   <sheets>
     <sheet name="書單(總)" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'書單(總)'!$A$3:$A$73</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1046,32 +1046,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表3" filterMode="1"/>
+  <sheetPr codeName="工作表3"/>
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="7.15625" defaultRowHeight="16.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.2109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.20703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.35546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.62890625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.41796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="7.140625" style="1"/>
+    <col min="9" max="9" width="8.83984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.578125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="7.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="20.350000000000001" x14ac:dyDescent="0.45">
       <c r="A1" s="10"/>
       <c r="B1" s="9" t="s">
         <v>131</v>
@@ -1085,7 +1085,7 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="3.4" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="30.2" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>132</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>42</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>52</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>52</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>52</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>52</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>52</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>61</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>61</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>67</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>67</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>73</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>73</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>73</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>73</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>73</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
         <v>83</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>83</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="17" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>86</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>89</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>89</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
         <v>89</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>89</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
         <v>89</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>94</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>94</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>94</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>94</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
         <v>94</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>104</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>104</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
         <v>104</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
         <v>104</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
         <v>104</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
         <v>104</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
         <v>104</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
         <v>104</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
         <v>104</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
         <v>104</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
         <v>104</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
         <v>104</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
         <v>104</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
         <v>104</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
         <v>104</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="A74" s="7"/>
       <c r="B74" s="5"/>
       <c r="C74" s="7"/>
@@ -3529,7 +3529,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="7"/>
       <c r="B75" s="5"/>
       <c r="C75" s="7"/>
@@ -3542,14 +3542,14 @@
       </c>
       <c r="I75" s="8">
         <f>SUBTOTAL(9,I4:I73)</f>
-        <v>105750</v>
+        <v>3206873</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="12"/>
       <c r="B76" s="14">
         <f>I75</f>
-        <v>105750</v>
+        <v>3206873</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="13"/>
@@ -3558,7 +3558,7 @@
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
     </row>
-    <row r="78" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="22" t="s">
         <v>139</v>
       </c>
@@ -3574,13 +3574,7 @@
       <c r="I78" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A73">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="翔宇"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:A73"/>
   <mergeCells count="1">
     <mergeCell ref="A78:C78"/>
   </mergeCells>
